--- a/Resultados/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_14%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="278" documentId="11_B74576798AB4AC9229F90B167F84A89F8AC5410D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DA2D3556-8413-435F-A4E0-942BB62EFBCF}"/>
+  <xr:revisionPtr revIDLastSave="558" documentId="11_B74576798AB4AC9229F90B167F84A89F8AC5410D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E733E53E-AA16-43E0-B8C7-83979A6B4447}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -588,7 +588,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000009-4140-4C14-B71F-5DADA91B64B9}"/>
+              <c16:uniqueId val="{00000009-E47C-4179-B3BE-22A9C1229180}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -598,7 +598,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{0000000A-4140-4C14-B71F-5DADA91B64B9}"/>
+              <c16:uniqueId val="{0000000A-E47C-4179-B3BE-22A9C1229180}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -610,11 +610,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="590677008"/>
-        <c:axId val="590678928"/>
+        <c:axId val="762969840"/>
+        <c:axId val="762982320"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="590677008"/>
+        <c:axId val="762969840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -642,12 +642,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590678928"/>
+        <c:crossAx val="762982320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="590678928"/>
+        <c:axId val="762982320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -676,7 +676,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="590677008"/>
+        <c:crossAx val="762969840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -9715,23 +9715,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>50800</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>86360</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>149860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>55880</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>353060</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>124460</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1">
+        <xdr:cNvPr id="3" name="Gráfico 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4834FB97-81B6-CA14-89C7-225FA7C755BC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC22FAFA-1938-AFE4-703D-19E463EC31D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10081,13 +10081,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E648D4E2-35F6-4F72-8340-A8164274ADE8}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -10116,7 +10116,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -10152,8 +10152,11 @@
       <c r="J2">
         <v>14</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="M2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -10184,7 +10187,7 @@
         <v>1.278416</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10215,7 +10218,7 @@
         <v>1.3480320000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -10246,7 +10249,7 @@
         <v>1.3826240000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10277,7 +10280,7 @@
         <v>1.4052480000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10308,7 +10311,7 @@
         <v>1.4245760000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -10339,7 +10342,7 @@
         <v>1.4354720000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10370,7 +10373,7 @@
         <v>1.437344</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -10401,7 +10404,7 @@
         <v>1.4414400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -10432,7 +10435,7 @@
         <v>1.446224</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10463,7 +10466,7 @@
         <v>1.44712</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -10494,7 +10497,7 @@
         <v>1.446288</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -10525,7 +10528,7 @@
         <v>1.4441440000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10556,7 +10559,7 @@
         <v>1.44224</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>

--- a/Resultados/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/Resultados/field_16ha_100ha_14%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://xmobotsaeroespacial-my.sharepoint.com/personal/paulo_acorinte_xmobots_com_br/Documents/Área de Trabalho/Repositorios/simulador/Resultados/field_16ha_100ha_14%_12m_0_TSP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="558" documentId="11_B74576798AB4AC9229F90B167F84A89F8AC5410D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E733E53E-AA16-43E0-B8C7-83979A6B4447}"/>
+  <xr:revisionPtr revIDLastSave="559" documentId="11_B74576798AB4AC9229F90B167F84A89F8AC5410D" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{173CC962-F191-41C1-AE31-F12CF8364007}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1652" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1653" uniqueCount="70">
   <si>
     <t>Unnamed: 0</t>
   </si>
@@ -272,6 +272,9 @@
   </si>
   <si>
     <t>Resultado 28</t>
+  </si>
+  <si>
+    <t>eld_16ha_100ha_14%_12m_0_TSP\</t>
   </si>
 </sst>
 </file>
@@ -10081,13 +10084,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E648D4E2-35F6-4F72-8340-A8164274ADE8}">
   <sheetPr codeName="Planilha33"/>
-  <dimension ref="A1:M30"/>
+  <dimension ref="A1:P30"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>33</v>
       </c>
@@ -10115,8 +10118,11 @@
       <c r="J1" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -10156,7 +10162,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -10187,7 +10193,7 @@
         <v>1.278416</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>42</v>
       </c>
@@ -10218,7 +10224,7 @@
         <v>1.3480320000000001</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>43</v>
       </c>
@@ -10249,7 +10255,7 @@
         <v>1.3826240000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>44</v>
       </c>
@@ -10280,7 +10286,7 @@
         <v>1.4052480000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>45</v>
       </c>
@@ -10311,7 +10317,7 @@
         <v>1.4245760000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>46</v>
       </c>
@@ -10342,7 +10348,7 @@
         <v>1.4354720000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>47</v>
       </c>
@@ -10373,7 +10379,7 @@
         <v>1.437344</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>48</v>
       </c>
@@ -10404,7 +10410,7 @@
         <v>1.4414400000000001</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>49</v>
       </c>
@@ -10435,7 +10441,7 @@
         <v>1.446224</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -10466,7 +10472,7 @@
         <v>1.44712</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -10497,7 +10503,7 @@
         <v>1.446288</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>52</v>
       </c>
@@ -10528,7 +10534,7 @@
         <v>1.4441440000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>53</v>
       </c>
@@ -10559,7 +10565,7 @@
         <v>1.44224</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>54</v>
       </c>
